--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -733,7 +733,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -874,7 +874,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2001001</v>
+        <v>10001</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2001002</v>
+        <v>10002</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>28</v>
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>120</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>2001003</v>
+        <v>10003</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>29</v>
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>140</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>2001004</v>
+        <v>10004</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>30</v>
@@ -979,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>160</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>2001005</v>
+        <v>10005</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>31</v>
@@ -1011,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>180</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>2001006</v>
+        <v>10006</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>32</v>
@@ -1043,7 +1043,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>2001007</v>
+        <v>10007</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>33</v>
@@ -1075,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>220</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>2001008</v>
+        <v>10008</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>34</v>
@@ -1107,7 +1107,7 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>240</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>2001009</v>
+        <v>10009</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>35</v>
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>260</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>2001010</v>
+        <v>10010</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>36</v>
@@ -1171,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>280</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>2001011</v>
+        <v>10011</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>37</v>
@@ -1203,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>300</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>2001012</v>
+        <v>10012</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>38</v>
@@ -1235,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>320</v>

--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CreatureProto" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureProto!$A$1:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureProto!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>英雄ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -332,6 +332,66 @@
   <si>
     <t>猪</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill#id_lv</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001_1|1001_2</t>
+  </si>
+  <si>
+    <t>1002_1|1002_3</t>
+  </si>
+  <si>
+    <t>1003_1|1003_4</t>
+  </si>
+  <si>
+    <t>1004_1|1004_5</t>
+  </si>
+  <si>
+    <t>1005_1|1005_2</t>
+  </si>
+  <si>
+    <t>1005_1|1005_4</t>
+  </si>
+  <si>
+    <t>自带光环</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自带技能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aura#id_lv</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001_1|2001_1</t>
+  </si>
+  <si>
+    <t>2001_1|2001_2</t>
+  </si>
+  <si>
+    <t>2002_1|2002_3</t>
+  </si>
+  <si>
+    <t>2002_1|2002_4</t>
+  </si>
+  <si>
+    <t>2003_1|2003_5</t>
+  </si>
+  <si>
+    <t>2003_1|2003_2</t>
   </si>
 </sst>
 </file>
@@ -729,11 +789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A16"/>
+      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -741,10 +801,11 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,25 +819,31 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,25 +857,31 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -822,25 +895,31 @@
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -853,11 +932,11 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -871,8 +950,14 @@
       <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -885,26 +970,32 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>80</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="4">
         <v>1000</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>6</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <v>5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10002</v>
       </c>
@@ -917,26 +1008,32 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6">
         <v>120</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>90</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="4">
         <v>1100</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="4">
         <v>8</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10003</v>
       </c>
@@ -949,26 +1046,32 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
         <v>140</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>100</v>
       </c>
-      <c r="G7" s="4">
+      <c r="I7" s="4">
         <v>1200</v>
       </c>
-      <c r="H7" s="4">
+      <c r="J7" s="4">
         <v>10</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10004</v>
       </c>
@@ -981,26 +1084,32 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
         <v>160</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>110</v>
       </c>
-      <c r="G8" s="4">
+      <c r="I8" s="4">
         <v>1300</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="4">
         <v>12</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
         <v>5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10005</v>
       </c>
@@ -1013,26 +1122,32 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
         <v>180</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>120</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I9" s="4">
         <v>1400</v>
       </c>
-      <c r="H9" s="4">
+      <c r="J9" s="4">
         <v>14</v>
       </c>
-      <c r="I9" s="4">
+      <c r="K9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="4">
+      <c r="L9" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10006</v>
       </c>
@@ -1045,26 +1160,32 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
         <v>200</v>
       </c>
-      <c r="F10" s="2">
+      <c r="H10" s="2">
         <v>130</v>
       </c>
-      <c r="G10" s="4">
+      <c r="I10" s="4">
         <v>1500</v>
       </c>
-      <c r="H10" s="4">
+      <c r="J10" s="4">
         <v>16</v>
       </c>
-      <c r="I10" s="4">
+      <c r="K10" s="4">
         <v>5</v>
       </c>
-      <c r="J10" s="4">
+      <c r="L10" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10007</v>
       </c>
@@ -1077,26 +1198,32 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
         <v>220</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
         <v>140</v>
       </c>
-      <c r="G11" s="4">
+      <c r="I11" s="4">
         <v>1600</v>
       </c>
-      <c r="H11" s="4">
+      <c r="J11" s="4">
         <v>18</v>
       </c>
-      <c r="I11" s="4">
+      <c r="K11" s="4">
         <v>5</v>
       </c>
-      <c r="J11" s="4">
+      <c r="L11" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10008</v>
       </c>
@@ -1109,26 +1236,32 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12">
         <v>240</v>
       </c>
-      <c r="F12" s="2">
+      <c r="H12" s="2">
         <v>150</v>
       </c>
-      <c r="G12" s="4">
+      <c r="I12" s="4">
         <v>1700</v>
       </c>
-      <c r="H12" s="4">
+      <c r="J12" s="4">
         <v>20</v>
       </c>
-      <c r="I12" s="4">
+      <c r="K12" s="4">
         <v>5</v>
       </c>
-      <c r="J12" s="4">
+      <c r="L12" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10009</v>
       </c>
@@ -1141,26 +1274,32 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13">
         <v>260</v>
       </c>
-      <c r="F13" s="2">
+      <c r="H13" s="2">
         <v>160</v>
       </c>
-      <c r="G13" s="4">
+      <c r="I13" s="4">
         <v>1800</v>
       </c>
-      <c r="H13" s="4">
+      <c r="J13" s="4">
         <v>22</v>
       </c>
-      <c r="I13" s="4">
+      <c r="K13" s="4">
         <v>5</v>
       </c>
-      <c r="J13" s="4">
+      <c r="L13" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10010</v>
       </c>
@@ -1173,26 +1312,32 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14">
         <v>280</v>
       </c>
-      <c r="F14" s="2">
+      <c r="H14" s="2">
         <v>170</v>
       </c>
-      <c r="G14" s="4">
+      <c r="I14" s="4">
         <v>1900</v>
       </c>
-      <c r="H14" s="4">
+      <c r="J14" s="4">
         <v>24</v>
       </c>
-      <c r="I14" s="4">
+      <c r="K14" s="4">
         <v>5</v>
       </c>
-      <c r="J14" s="4">
+      <c r="L14" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10011</v>
       </c>
@@ -1205,26 +1350,32 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
         <v>300</v>
       </c>
-      <c r="F15" s="2">
+      <c r="H15" s="2">
         <v>180</v>
       </c>
-      <c r="G15" s="4">
+      <c r="I15" s="4">
         <v>2000</v>
       </c>
-      <c r="H15" s="4">
+      <c r="J15" s="4">
         <v>26</v>
       </c>
-      <c r="I15" s="4">
+      <c r="K15" s="4">
         <v>5</v>
       </c>
-      <c r="J15" s="4">
+      <c r="L15" s="4">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10012</v>
       </c>
@@ -1237,22 +1388,28 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16">
         <v>320</v>
       </c>
-      <c r="F16" s="2">
+      <c r="H16" s="2">
         <v>190</v>
       </c>
-      <c r="G16" s="4">
+      <c r="I16" s="4">
         <v>2100</v>
       </c>
-      <c r="H16" s="4">
+      <c r="J16" s="4">
         <v>28</v>
       </c>
-      <c r="I16" s="4">
+      <c r="K16" s="4">
         <v>5</v>
       </c>
-      <c r="J16" s="4">
+      <c r="L16" s="4">
         <v>95</v>
       </c>
     </row>

--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CreatureProto" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureProto!$A$1:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureProto!$A$1:$N$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -22,7 +22,33 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每分钟攻击多少次</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>英雄ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -342,10 +368,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>skill#id_lv</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1001_1|1001_2</t>
   </si>
   <si>
@@ -368,10 +390,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>自带技能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>aura#id_lv</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -392,6 +410,33 @@
   </si>
   <si>
     <t>2003_1|2003_2</t>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊技能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_extra#id_lv</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_common#id_lv</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001_1</t>
+  </si>
+  <si>
+    <t>1001_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -789,11 +834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -801,11 +846,14 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,31 +867,37 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,31 +911,37 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -895,31 +955,37 @@
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -933,16 +999,16 @@
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>2</v>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>2</v>
@@ -956,8 +1022,14 @@
       <c r="L4" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="M4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -970,32 +1042,38 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
+      <c r="E5" s="3">
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5">
         <v>100</v>
       </c>
-      <c r="H5" s="2">
-        <v>80</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4">
+        <v>240</v>
+      </c>
+      <c r="L5" s="4">
         <v>6</v>
       </c>
-      <c r="K5" s="4">
+      <c r="M5" s="4">
         <v>5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10002</v>
       </c>
@@ -1008,32 +1086,38 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="3">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6">
+        <v>120</v>
+      </c>
+      <c r="J6" s="2">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4">
+        <v>250</v>
+      </c>
+      <c r="L6" s="4">
+        <v>8</v>
+      </c>
+      <c r="M6" s="4">
+        <v>6</v>
+      </c>
+      <c r="N6" s="4">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6">
-        <v>120</v>
-      </c>
-      <c r="H6" s="2">
-        <v>90</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1100</v>
-      </c>
-      <c r="J6" s="4">
-        <v>8</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>45</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10003</v>
       </c>
@@ -1046,32 +1130,38 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
+      <c r="E7" s="3">
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7">
         <v>140</v>
       </c>
-      <c r="H7" s="2">
-        <v>100</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1200</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
+        <v>24</v>
+      </c>
+      <c r="K7" s="4">
+        <v>260</v>
+      </c>
+      <c r="L7" s="4">
         <v>10</v>
       </c>
-      <c r="K7" s="4">
-        <v>5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>50</v>
+      <c r="M7" s="4">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4">
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10004</v>
       </c>
@@ -1084,32 +1174,38 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>43</v>
+      <c r="E8" s="3">
+        <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8">
         <v>160</v>
       </c>
-      <c r="H8" s="2">
-        <v>110</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1300</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
+        <v>26</v>
+      </c>
+      <c r="K8" s="4">
+        <v>270</v>
+      </c>
+      <c r="L8" s="4">
         <v>12</v>
       </c>
-      <c r="K8" s="4">
-        <v>5</v>
-      </c>
-      <c r="L8" s="4">
-        <v>55</v>
+      <c r="M8" s="4">
+        <v>8</v>
+      </c>
+      <c r="N8" s="4">
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10005</v>
       </c>
@@ -1122,32 +1218,38 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
+      <c r="E9" s="3">
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9">
         <v>180</v>
       </c>
-      <c r="H9" s="2">
-        <v>120</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1400</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
+        <v>28</v>
+      </c>
+      <c r="K9" s="4">
+        <v>280</v>
+      </c>
+      <c r="L9" s="4">
         <v>14</v>
       </c>
-      <c r="K9" s="4">
-        <v>5</v>
-      </c>
-      <c r="L9" s="4">
-        <v>60</v>
+      <c r="M9" s="4">
+        <v>9</v>
+      </c>
+      <c r="N9" s="4">
+        <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10006</v>
       </c>
@@ -1160,32 +1262,38 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
+      <c r="E10" s="3">
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10">
         <v>200</v>
       </c>
-      <c r="H10" s="2">
-        <v>130</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1500</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
+        <v>30</v>
+      </c>
+      <c r="K10" s="4">
+        <v>290</v>
+      </c>
+      <c r="L10" s="4">
         <v>16</v>
       </c>
-      <c r="K10" s="4">
-        <v>5</v>
-      </c>
-      <c r="L10" s="4">
-        <v>65</v>
+      <c r="M10" s="4">
+        <v>10</v>
+      </c>
+      <c r="N10" s="4">
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10007</v>
       </c>
@@ -1198,32 +1306,38 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>45</v>
+      <c r="E11" s="3">
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11">
         <v>220</v>
       </c>
-      <c r="H11" s="2">
-        <v>140</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1600</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
+        <v>32</v>
+      </c>
+      <c r="K11" s="4">
+        <v>300</v>
+      </c>
+      <c r="L11" s="4">
         <v>18</v>
       </c>
-      <c r="K11" s="4">
-        <v>5</v>
-      </c>
-      <c r="L11" s="4">
-        <v>70</v>
+      <c r="M11" s="4">
+        <v>11</v>
+      </c>
+      <c r="N11" s="4">
+        <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10008</v>
       </c>
@@ -1236,32 +1350,38 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
+      <c r="E12" s="3">
+        <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12">
+        <v>240</v>
+      </c>
+      <c r="J12" s="2">
+        <v>34</v>
+      </c>
+      <c r="K12" s="4">
+        <v>310</v>
+      </c>
+      <c r="L12" s="4">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4">
+        <v>12</v>
+      </c>
+      <c r="N12" s="4">
         <v>54</v>
       </c>
-      <c r="G12">
-        <v>240</v>
-      </c>
-      <c r="H12" s="2">
-        <v>150</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1700</v>
-      </c>
-      <c r="J12" s="4">
-        <v>20</v>
-      </c>
-      <c r="K12" s="4">
-        <v>5</v>
-      </c>
-      <c r="L12" s="4">
-        <v>75</v>
-      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10009</v>
       </c>
@@ -1274,32 +1394,38 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
+      <c r="E13" s="3">
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13">
+        <v>60</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13">
         <v>260</v>
       </c>
-      <c r="H13" s="2">
-        <v>160</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1800</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
+        <v>36</v>
+      </c>
+      <c r="K13" s="4">
+        <v>320</v>
+      </c>
+      <c r="L13" s="4">
         <v>22</v>
       </c>
-      <c r="K13" s="4">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4">
-        <v>80</v>
+      <c r="M13" s="4">
+        <v>13</v>
+      </c>
+      <c r="N13" s="4">
+        <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10010</v>
       </c>
@@ -1312,32 +1438,38 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
+      <c r="E14" s="3">
+        <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14">
         <v>280</v>
       </c>
-      <c r="H14" s="2">
-        <v>170</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1900</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
+        <v>38</v>
+      </c>
+      <c r="K14" s="4">
+        <v>330</v>
+      </c>
+      <c r="L14" s="4">
         <v>24</v>
       </c>
-      <c r="K14" s="4">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4">
-        <v>85</v>
+      <c r="M14" s="4">
+        <v>14</v>
+      </c>
+      <c r="N14" s="4">
+        <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10011</v>
       </c>
@@ -1350,32 +1482,38 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>47</v>
+      <c r="E15" s="3">
+        <v>40</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15">
         <v>300</v>
       </c>
-      <c r="H15" s="2">
-        <v>180</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2000</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
+        <v>40</v>
+      </c>
+      <c r="K15" s="4">
+        <v>340</v>
+      </c>
+      <c r="L15" s="4">
         <v>26</v>
       </c>
-      <c r="K15" s="4">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4">
-        <v>90</v>
+      <c r="M15" s="4">
+        <v>15</v>
+      </c>
+      <c r="N15" s="4">
+        <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10012</v>
       </c>
@@ -1388,29 +1526,35 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>47</v>
+      <c r="E16" s="3">
+        <v>42</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16">
         <v>320</v>
       </c>
-      <c r="H16" s="2">
-        <v>190</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2100</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
+        <v>42</v>
+      </c>
+      <c r="K16" s="4">
+        <v>350</v>
+      </c>
+      <c r="L16" s="4">
         <v>28</v>
       </c>
-      <c r="K16" s="4">
-        <v>5</v>
-      </c>
-      <c r="L16" s="4">
-        <v>95</v>
+      <c r="M16" s="4">
+        <v>16</v>
+      </c>
+      <c r="N16" s="4">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>英雄ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -304,10 +304,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>moduleid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -437,6 +433,13 @@
   <si>
     <t>1001_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvbu</t>
   </si>
 </sst>
 </file>
@@ -838,7 +841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -867,16 +870,16 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -917,10 +920,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
@@ -949,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -958,13 +961,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -990,10 +993,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>18</v>
@@ -1002,13 +1005,13 @@
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>2</v>
@@ -1034,10 +1037,10 @@
         <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1046,13 +1049,13 @@
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5">
         <v>100</v>
@@ -1078,10 +1081,10 @@
         <v>10002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1090,13 +1093,13 @@
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6">
         <v>120</v>
@@ -1122,10 +1125,10 @@
         <v>10003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1134,13 +1137,13 @@
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7">
         <v>140</v>
@@ -1166,10 +1169,10 @@
         <v>10004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1178,13 +1181,13 @@
         <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8">
         <v>160</v>
@@ -1210,10 +1213,10 @@
         <v>10005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1222,13 +1225,13 @@
         <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9">
         <v>180</v>
@@ -1254,10 +1257,10 @@
         <v>10006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1266,13 +1269,13 @@
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10">
         <v>200</v>
@@ -1298,10 +1301,10 @@
         <v>10007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1310,13 +1313,13 @@
         <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11">
         <v>220</v>
@@ -1342,10 +1345,10 @@
         <v>10008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1354,13 +1357,13 @@
         <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12">
         <v>240</v>
@@ -1386,10 +1389,10 @@
         <v>10009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1398,13 +1401,13 @@
         <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13">
         <v>260</v>
@@ -1430,10 +1433,10 @@
         <v>10010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1442,13 +1445,13 @@
         <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14">
         <v>280</v>
@@ -1474,10 +1477,10 @@
         <v>10011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1486,13 +1489,13 @@
         <v>40</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15">
         <v>300</v>
@@ -1518,10 +1521,10 @@
         <v>10012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1530,13 +1533,13 @@
         <v>42</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16">
         <v>320</v>

--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>英雄ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -440,6 +440,167 @@
   </si>
   <si>
     <t>lvbu</t>
+  </si>
+  <si>
+    <t>caocao</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aopi</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aoren</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aqiao</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iubei</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hangfei</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhugeliang</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uojia</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uanggai</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iaxu</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ushou</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -841,7 +1002,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1040,7 +1201,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1083,8 +1244,8 @@
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>62</v>
+      <c r="C6" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1127,8 +1288,8 @@
       <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>62</v>
+      <c r="C7" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1171,8 +1332,8 @@
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>62</v>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1215,8 +1376,8 @@
       <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>62</v>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1259,8 +1420,8 @@
       <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>62</v>
+      <c r="C10" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1303,8 +1464,8 @@
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>62</v>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1347,8 +1508,8 @@
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>62</v>
+      <c r="C12" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1391,8 +1552,8 @@
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>62</v>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1435,8 +1596,8 @@
       <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
+      <c r="C14" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1479,8 +1640,8 @@
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
-        <v>62</v>
+      <c r="C15" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D15">
         <v>1</v>

--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CreatureProto" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureProto!$A$1:$N$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureProto!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -22,33 +22,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-每分钟攻击多少次</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,11 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
-  <si>
-    <t>英雄ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,7 +109,7 @@
   </si>
   <si>
     <t>jl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -156,7 +126,7 @@
       </rPr>
       <t>l</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>攻击</t>
@@ -184,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>n</t>
     </r>
@@ -223,7 +189,7 @@
   </si>
   <si>
     <t>atk</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -260,48 +226,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>jl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暴击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暴伤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>crit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>crit_hurt</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>l</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
@@ -309,85 +271,67 @@
   </si>
   <si>
     <t>鼠</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>牛</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>虎</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>兔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>龙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>蛇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>马</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>羊</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>猴</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>鸡</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>狗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>猪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>jl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>map</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001_1|1001_2</t>
-  </si>
-  <si>
-    <t>1002_1|1002_3</t>
-  </si>
-  <si>
-    <t>1003_1|1003_4</t>
-  </si>
-  <si>
-    <t>1004_1|1004_5</t>
-  </si>
-  <si>
-    <t>1005_1|1005_2</t>
-  </si>
-  <si>
-    <t>1005_1|1005_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自带光环</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>aura#id_lv</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2001_1|2001_1</t>
@@ -408,42 +352,34 @@
     <t>2003_1|2003_2</t>
   </si>
   <si>
-    <t>攻速</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊技能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通技能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>skill_extra#id_lv</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>skill_common#id_lv</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1001_1</t>
   </si>
   <si>
     <t>1001_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>module_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>lvbu</t>
   </si>
   <si>
     <t>caocao</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -460,7 +396,7 @@
       </rPr>
       <t>aopi</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -477,7 +413,7 @@
       </rPr>
       <t>aoren</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -494,7 +430,7 @@
       </rPr>
       <t>aqiao</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -511,7 +447,7 @@
       </rPr>
       <t>iubei</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -528,11 +464,11 @@
       </rPr>
       <t>hangfei</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>zhugeliang</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -549,7 +485,7 @@
       </rPr>
       <t>uojia</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -566,7 +502,7 @@
       </rPr>
       <t>uanggai</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -583,7 +519,7 @@
       </rPr>
       <t>iaxu</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -600,14 +536,62 @@
       </rPr>
       <t>ushou</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002_2</t>
+  </si>
+  <si>
+    <t>1002_3</t>
+  </si>
+  <si>
+    <t>1002_4</t>
+  </si>
+  <si>
+    <t>1002_5</t>
+  </si>
+  <si>
+    <t>1003_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003_2</t>
+  </si>
+  <si>
+    <t>1003_3</t>
+  </si>
+  <si>
+    <t>1003_4</t>
+  </si>
+  <si>
+    <t>1003_5</t>
+  </si>
+  <si>
+    <t>1004_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,12 +609,6 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -690,10 +668,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -998,731 +976,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>20</v>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10001</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="4">
+        <v>2400</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5" s="2">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4">
-        <v>240</v>
-      </c>
-      <c r="L5" s="4">
-        <v>6</v>
-      </c>
-      <c r="M5" s="4">
-        <v>5</v>
-      </c>
-      <c r="N5" s="4">
-        <v>40</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10002</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>120</v>
+      </c>
+      <c r="I6" s="2">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6">
-        <v>120</v>
-      </c>
-      <c r="J6" s="2">
-        <v>22</v>
+      <c r="J6" s="4">
+        <v>2500</v>
       </c>
       <c r="K6" s="4">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="L6" s="4">
-        <v>8</v>
-      </c>
-      <c r="M6" s="4">
-        <v>6</v>
-      </c>
-      <c r="N6" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10003</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>140</v>
+      </c>
+      <c r="I7" s="2">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7">
-        <v>140</v>
-      </c>
-      <c r="J7" s="2">
-        <v>24</v>
+      <c r="J7" s="4">
+        <v>2600</v>
       </c>
       <c r="K7" s="4">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="L7" s="4">
-        <v>10</v>
-      </c>
-      <c r="M7" s="4">
-        <v>7</v>
-      </c>
-      <c r="N7" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10004</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
         <v>26</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="H8">
         <v>160</v>
       </c>
-      <c r="J8" s="2">
+      <c r="I8" s="2">
         <v>26</v>
       </c>
+      <c r="J8" s="4">
+        <v>2700</v>
+      </c>
       <c r="K8" s="4">
-        <v>270</v>
+        <v>8</v>
       </c>
       <c r="L8" s="4">
-        <v>12</v>
-      </c>
-      <c r="M8" s="4">
-        <v>8</v>
-      </c>
-      <c r="N8" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10005</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>180</v>
+      </c>
+      <c r="I9" s="2">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9">
-        <v>180</v>
-      </c>
-      <c r="J9" s="2">
-        <v>28</v>
+      <c r="J9" s="4">
+        <v>2800</v>
       </c>
       <c r="K9" s="4">
-        <v>280</v>
+        <v>9</v>
       </c>
       <c r="L9" s="4">
-        <v>14</v>
-      </c>
-      <c r="M9" s="4">
-        <v>9</v>
-      </c>
-      <c r="N9" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10006</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10" s="2">
         <v>30</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="4">
+        <v>2900</v>
+      </c>
+      <c r="K10" s="4">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4">
         <v>50</v>
       </c>
-      <c r="I10">
-        <v>200</v>
-      </c>
-      <c r="J10" s="2">
-        <v>30</v>
-      </c>
-      <c r="K10" s="4">
-        <v>290</v>
-      </c>
-      <c r="L10" s="4">
-        <v>16</v>
-      </c>
-      <c r="M10" s="4">
-        <v>10</v>
-      </c>
-      <c r="N10" s="4">
-        <v>50</v>
-      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10007</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11">
+        <v>220</v>
+      </c>
+      <c r="I11" s="2">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11">
-        <v>220</v>
-      </c>
-      <c r="J11" s="2">
-        <v>32</v>
+      <c r="J11" s="4">
+        <v>3000</v>
       </c>
       <c r="K11" s="4">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="L11" s="4">
-        <v>18</v>
-      </c>
-      <c r="M11" s="4">
-        <v>11</v>
-      </c>
-      <c r="N11" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10008</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12">
+        <v>240</v>
+      </c>
+      <c r="I12" s="2">
         <v>34</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12">
-        <v>240</v>
-      </c>
-      <c r="J12" s="2">
-        <v>34</v>
+      <c r="J12" s="4">
+        <v>3100</v>
       </c>
       <c r="K12" s="4">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="L12" s="4">
-        <v>20</v>
-      </c>
-      <c r="M12" s="4">
-        <v>12</v>
-      </c>
-      <c r="N12" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10009</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <v>260</v>
+      </c>
+      <c r="I13" s="2">
         <v>36</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13">
-        <v>260</v>
-      </c>
-      <c r="J13" s="2">
-        <v>36</v>
+      <c r="J13" s="4">
+        <v>3200</v>
       </c>
       <c r="K13" s="4">
-        <v>320</v>
+        <v>13</v>
       </c>
       <c r="L13" s="4">
-        <v>22</v>
-      </c>
-      <c r="M13" s="4">
-        <v>13</v>
-      </c>
-      <c r="N13" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10010</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>35</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14">
+        <v>280</v>
+      </c>
+      <c r="I14" s="2">
         <v>38</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14">
-        <v>280</v>
-      </c>
-      <c r="J14" s="2">
-        <v>38</v>
+      <c r="J14" s="4">
+        <v>3300</v>
       </c>
       <c r="K14" s="4">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="L14" s="4">
-        <v>24</v>
-      </c>
-      <c r="M14" s="4">
-        <v>14</v>
-      </c>
-      <c r="N14" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10011</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15">
+        <v>300</v>
+      </c>
+      <c r="I15" s="2">
         <v>40</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15">
-        <v>300</v>
-      </c>
-      <c r="J15" s="2">
-        <v>40</v>
+      <c r="J15" s="4">
+        <v>3400</v>
       </c>
       <c r="K15" s="4">
-        <v>340</v>
+        <v>15</v>
       </c>
       <c r="L15" s="4">
-        <v>26</v>
-      </c>
-      <c r="M15" s="4">
-        <v>15</v>
-      </c>
-      <c r="N15" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10012</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16">
+        <v>320</v>
+      </c>
+      <c r="I16" s="2">
         <v>42</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16">
-        <v>320</v>
-      </c>
-      <c r="J16" s="2">
-        <v>42</v>
+      <c r="J16" s="4">
+        <v>3500</v>
       </c>
       <c r="K16" s="4">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="L16" s="4">
-        <v>28</v>
-      </c>
-      <c r="M16" s="4">
-        <v>16</v>
-      </c>
-      <c r="N16" s="4">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="K1" authorId="0" shapeId="0">
@@ -33,7 +33,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,10 +278,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>虎</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>兔</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -298,10 +294,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>羊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>猴</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -332,24 +324,6 @@
   <si>
     <t>aura#id_lv</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001_1|2001_1</t>
-  </si>
-  <si>
-    <t>2001_1|2001_2</t>
-  </si>
-  <si>
-    <t>2002_1|2002_3</t>
-  </si>
-  <si>
-    <t>2002_1|2002_4</t>
-  </si>
-  <si>
-    <t>2003_1|2003_5</t>
-  </si>
-  <si>
-    <t>2003_1|2003_2</t>
   </si>
   <si>
     <t>特殊技能</t>
@@ -551,39 +525,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>1004_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎(主帅)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊(主帅)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>1002_2</t>
-  </si>
-  <si>
-    <t>1002_3</t>
-  </si>
-  <si>
-    <t>1002_4</t>
-  </si>
-  <si>
-    <t>1002_5</t>
-  </si>
-  <si>
-    <t>1003_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003_2</t>
-  </si>
-  <si>
-    <t>1003_3</t>
-  </si>
-  <si>
-    <t>1003_4</t>
-  </si>
-  <si>
-    <t>1003_5</t>
-  </si>
-  <si>
-    <t>1004_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1005_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +648,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -690,7 +664,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -980,13 +954,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
@@ -996,7 +970,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -1008,13 +982,13 @@
         <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -1049,10 +1023,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -1081,16 +1055,16 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
@@ -1122,13 +1096,13 @@
         <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>1</v>
@@ -1157,17 +1131,15 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5">
         <v>100</v>
       </c>
@@ -1195,17 +1167,15 @@
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6">
         <v>120</v>
       </c>
@@ -1230,19 +1200,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>140</v>
@@ -1268,20 +1238,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8">
         <v>160</v>
       </c>
@@ -1306,20 +1272,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9">
         <v>180</v>
       </c>
@@ -1344,34 +1306,32 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J10" s="4">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="K10" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L10" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1382,34 +1342,32 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11">
+        <v>120</v>
+      </c>
+      <c r="I11" s="2">
+        <v>22</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2500</v>
+      </c>
+      <c r="K11" s="4">
+        <v>6</v>
+      </c>
+      <c r="L11" s="4">
         <v>42</v>
-      </c>
-      <c r="H11">
-        <v>220</v>
-      </c>
-      <c r="I11" s="2">
-        <v>32</v>
-      </c>
-      <c r="J11" s="4">
-        <v>3000</v>
-      </c>
-      <c r="K11" s="4">
-        <v>11</v>
-      </c>
-      <c r="L11" s="4">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1420,34 +1378,34 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H12">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="I12" s="2">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J12" s="4">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="K12" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L12" s="4">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1458,34 +1416,30 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="I13" s="2">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J13" s="4">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="K13" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L13" s="4">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -1496,34 +1450,30 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="I14" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J14" s="4">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K14" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L14" s="4">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1534,20 +1484,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15">
         <v>300</v>
       </c>
@@ -1572,20 +1518,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16">
         <v>320</v>
       </c>

--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="K1" authorId="0" shapeId="0">
@@ -33,7 +33,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -648,7 +648,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -664,7 +664,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -954,7 +954,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="CreatureProto" sheetId="4" r:id="rId1"/>
+    <sheet name="Creature" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureProto!$A$1:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creature!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -954,7 +954,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="K1" authorId="0" shapeId="0">
@@ -33,7 +33,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -71,25 +71,6 @@
           </rPr>
           <t xml:space="preserve">
 额外的伤害比</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1 客户端专用
-2 服务器专用
-3 通用
-0 策划维护用
-</t>
         </r>
       </text>
     </comment>
@@ -648,7 +629,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -664,7 +645,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -954,7 +935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,7 +38,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -55,7 +55,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -93,46 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>鼠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>马</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -186,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -203,7 +163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -220,7 +180,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -230,76 +190,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iubei</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hangfei</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>zhugeliang</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uojia</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uanggai</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>怪物ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
   </si>
   <si>
     <r>
@@ -309,92 +224,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iaxu</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ushou</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎(主帅)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊(主帅)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2004_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-  </si>
-  <si>
-    <r>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -409,51 +239,126 @@
     <t>map</t>
   </si>
   <si>
-    <t>0_0_2400|1_0_30|2_0_100|3_0_20|4_0_5|5_0_40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_0_2500|1_0_30|2_0_120|3_0_22|4_0_6|5_0_42</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_0_2600|1_0_30|2_0_140|3_0_24|4_0_7|5_0_44</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_0_2700|1_0_30|2_0_160|3_0_26|4_0_8|5_0_46</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_0_2800|1_0_30|2_0_180|3_0_28|4_0_9|5_0_48</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_0_2700|1_0_30|2_0_160|3_0_26|4_0_8|5_0_46</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_0_2800|1_0_30|2_0_180|3_0_28|4_0_9|5_0_48</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_0_3400|1_0_30|2_0_300|3_0_20|4_0_15|5_0_60</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_0_3500|1_0_30|2_0_320|3_0_22|4_0_16|5_0_62</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>木桩</t>
+  </si>
+  <si>
+    <t>野兔</t>
+  </si>
+  <si>
+    <t>凶狼</t>
+  </si>
+  <si>
+    <t>阿幺</t>
+  </si>
+  <si>
+    <t>强盗</t>
+  </si>
+  <si>
+    <t>土匪</t>
+  </si>
+  <si>
+    <t>土匪头目</t>
+  </si>
+  <si>
+    <t>阿顺</t>
+  </si>
+  <si>
+    <t>家仆</t>
+  </si>
+  <si>
+    <t>打手</t>
+  </si>
+  <si>
+    <t>管家</t>
+  </si>
+  <si>
+    <t>吴财道</t>
+  </si>
+  <si>
+    <t>衙役</t>
+  </si>
+  <si>
+    <t>衙役头目</t>
+  </si>
+  <si>
+    <t>师爷</t>
+  </si>
+  <si>
+    <t>汪诗书</t>
+  </si>
+  <si>
+    <t>liubei</t>
+  </si>
+  <si>
+    <t>zhangfei</t>
+  </si>
+  <si>
+    <t>guojia</t>
+  </si>
+  <si>
+    <t>huanggai</t>
+  </si>
+  <si>
+    <t>jushou</t>
+  </si>
+  <si>
+    <t>jiaxu</t>
+  </si>
+  <si>
+    <t>0_0_200</t>
+  </si>
+  <si>
+    <t>0_0_400|1_0_30|2_0_20</t>
+  </si>
+  <si>
+    <t>0_0_600|1_0_30|2_0_25|3_0_10</t>
+  </si>
+  <si>
+    <t>0_0_1000|1_0_30|2_0_30|3_0_20</t>
+  </si>
+  <si>
+    <t>0_0_800|1_0_30|2_0_30|3_0_20</t>
+  </si>
+  <si>
+    <t>0_0_600|1_0_30|2_0_30|3_0_20</t>
+  </si>
+  <si>
+    <t>0_0_1000|1_0_30|2_0_40|3_0_20</t>
+  </si>
+  <si>
+    <t>0_0_2000|1_0_30|2_0_80|3_0_40</t>
+  </si>
+  <si>
+    <t>0_0_1000|1_0_30|2_0_50|3_0_20</t>
+  </si>
+  <si>
+    <t>0_0_1200|1_0_30|2_0_60|3_0_30</t>
+  </si>
+  <si>
+    <t>0_0_1500|1_0_30|2_0_60|3_0_40</t>
+  </si>
+  <si>
+    <t>0_0_2000|1_0_30|2_0_90|3_0_100</t>
+  </si>
+  <si>
+    <t>0_0_1500|1_0_30|2_0_80|3_0_40</t>
+  </si>
+  <si>
+    <t>0_0_2000|1_0_30|2_0_100|3_0_40</t>
+  </si>
+  <si>
+    <t>0_0_3000|1_0_30|2_0_200|3_0_60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -472,28 +377,76 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -501,11 +454,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -513,14 +485,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="4" builtinId="10"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -822,27 +814,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.125" customWidth="1"/>
+    <col min="8" max="8" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -854,19 +846,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -883,16 +875,16 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -903,22 +895,22 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -932,296 +924,376 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>10001</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>10002</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>10003</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>10004</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
+        <v>10005</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8">
+        <v>10006</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8">
+        <v>10007</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8">
+        <v>10008</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10">
+        <v>10009</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10">
+        <v>10010</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>10002</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10">
+        <v>10011</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10">
+        <v>10012</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>10003</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12">
+        <v>10013</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="12">
+        <v>10014</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="12">
+        <v>10015</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="12">
+        <v>10016</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>10004</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>10005</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>10006</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10007</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>10008</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>10009</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>10010</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>10011</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>10012</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="5" t="s">
-        <v>68</v>
+      <c r="F20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/creature_怪物表.xlsx
+++ b/plan/excel/creature_怪物表.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Creature" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creature!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creature!$A$1:$G$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,22 +63,6 @@
       <t>d</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
@@ -814,486 +798,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>10001</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>10002</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>10003</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
+      <c r="B7" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>10004</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>10005</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="8">
         <v>10006</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="8">
         <v>10007</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="8">
         <v>10008</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="10">
         <v>10009</v>
       </c>
-      <c r="B13" s="10">
-        <v>1</v>
+      <c r="B13" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>20</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="10">
         <v>10010</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
+      <c r="B14" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="10">
         <v>10011</v>
       </c>
-      <c r="B15" s="10">
-        <v>1</v>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>20</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="10">
         <v>10012</v>
       </c>
-      <c r="B16" s="10">
-        <v>1</v>
+      <c r="B16" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="12">
         <v>10013</v>
       </c>
-      <c r="B17" s="12">
-        <v>1</v>
+      <c r="B17" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="12">
         <v>10014</v>
       </c>
-      <c r="B18" s="12">
-        <v>1</v>
+      <c r="B18" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G18" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="12">
         <v>10015</v>
       </c>
-      <c r="B19" s="12">
-        <v>1</v>
+      <c r="B19" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="12">
         <v>10016</v>
       </c>
-      <c r="B20" s="12">
-        <v>1</v>
+      <c r="B20" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="10" t="s">
-        <v>73</v>
+        <v>27</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
